--- a/FileGunBasin/9 August-04 StormBasin/370 sko related but different - gbp worker fb - listings/new image stuff 1 snail sitespren image 1.xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/370 sko related but different - gbp worker fb - listings/new image stuff 1 snail sitespren image 1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/370 sko related but different - gbp worker fb - listings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C79F0743-7297-2847-A659-8E7774FA68B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34AD0BFA-5F83-F347-8F79-8D649EEA7545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19400" xr2:uid="{34123EFB-C676-E949-871D-B4BDC6ADBF11}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19340" xr2:uid="{34123EFB-C676-E949-871D-B4BDC6ADBF11}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
   <si>
     <t>ALTER TABLE</t>
   </si>
@@ -126,6 +126,12 @@
   </si>
   <si>
     <t>ON (snail_image_captured_at)</t>
+  </si>
+  <si>
+    <t>sitespren_image_url</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Study Confirms: The Last Easy Business Left (Rank And Rent) </t>
   </si>
 </sst>
 </file>
@@ -148,7 +154,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -158,6 +164,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14996795556505021"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -174,9 +186,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -511,205 +526,219 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D334510F-F72F-AD40-82D6-40B1C454480F}">
-  <dimension ref="D1:I17"/>
+  <dimension ref="D1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1:E1048576"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.83203125" customWidth="1"/>
     <col min="5" max="5" width="22.6640625" customWidth="1"/>
+    <col min="6" max="6" width="25.33203125" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="4:9" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+    </row>
     <row r="7" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" t="s">
-        <v>4</v>
-      </c>
-      <c r="I7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D10" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" t="s">
-        <v>4</v>
-      </c>
-      <c r="I10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" t="s">
-        <v>1</v>
-      </c>
-      <c r="F11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" t="s">
-        <v>4</v>
-      </c>
-      <c r="I11" t="s">
-        <v>17</v>
-      </c>
+      <c r="F7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
     </row>
     <row r="12" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
         <v>0</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="G12" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="H12" t="s">
         <v>4</v>
       </c>
       <c r="I12" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
         <v>0</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G13" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="H13" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="I13" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D14" t="s">
         <v>0</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="G14" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" t="s">
         <v>4</v>
       </c>
-      <c r="I14" t="s">
-        <v>24</v>
+      <c r="I15" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" t="s">
+        <v>4</v>
+      </c>
+      <c r="I16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" t="s">
+        <v>4</v>
+      </c>
+      <c r="I17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" t="s">
+        <v>3</v>
+      </c>
+      <c r="H19" t="s">
+        <v>4</v>
+      </c>
+      <c r="I19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
         <v>25</v>
       </c>
-      <c r="E16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="E21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
         <v>26</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G21" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D17" t="s">
+    <row r="22" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
         <v>25</v>
       </c>
-      <c r="E17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="E22" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
         <v>28</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G22" t="s">
         <v>29</v>
       </c>
     </row>
